--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения на несколько дней.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения на несколько дней.xlsx
@@ -66,9 +66,6 @@
     <t>Согласовано:</t>
   </si>
   <si>
-    <t xml:space="preserve">     Прошу предоставить мне социальный отпуск  с ________ 2019 по ________ 2019 без сохранения заработной платы.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Заместитель директора </t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Начальник производства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Прошу предоставить мне социальный отпуск  с ____________  по ___________  без сохранения заработной платы.</t>
   </si>
 </sst>
 </file>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
     </row>
     <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -793,7 +793,7 @@
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -804,12 +804,12 @@
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -820,7 +820,7 @@
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
       <c r="D33" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V/XIAIRJAw2R7zwyuVY5YvLNj9QGNXNnSqCyl/LKJ3T/n2QCl3Oe1nv/ilfMxl1gVkFeLAFfL7d2PNnNH4ZGtQ==" saltValue="Fy+Z+kJJpUQm1WydpwFHFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A3:B3"/>

--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения на несколько дней.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения на несколько дней.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Отдел кадров\ЗАЯВЛЕНИЯ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Документация\ЗАЯВЛЕНИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0240FCE-E30A-4D65-9429-11EE60CAB014}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="на свой счет несколько дней" sheetId="1" r:id="rId1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,6 +337,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -371,6 +389,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -546,11 +581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,12 +859,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
